--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>888</v>
+        <v>894.2834347060425</v>
       </c>
       <c r="C2">
-        <v>1288</v>
+        <v>1295.177072832771</v>
       </c>
       <c r="D2">
-        <v>1506</v>
+        <v>1514.908672723289</v>
       </c>
       <c r="E2">
-        <v>1636</v>
+        <v>1642.72015540434</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>917</v>
+        <v>920.7716035501105</v>
       </c>
       <c r="C3">
-        <v>1311</v>
+        <v>1317.500688659987</v>
       </c>
       <c r="D3">
-        <v>1521</v>
+        <v>1527.440964966058</v>
       </c>
       <c r="E3">
-        <v>1644</v>
+        <v>1650.71200068266</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>847</v>
+        <v>851.6346524056777</v>
       </c>
       <c r="C4">
-        <v>1257</v>
+        <v>1261.27490463378</v>
       </c>
       <c r="D4">
-        <v>1489</v>
+        <v>1496.895598707136</v>
       </c>
       <c r="E4">
-        <v>1622</v>
+        <v>1629.731575774725</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>960</v>
+        <v>965.6008698726566</v>
       </c>
       <c r="C5">
-        <v>1351</v>
+        <v>1356.938493712931</v>
       </c>
       <c r="D5">
-        <v>1524</v>
+        <v>1533.798019368191</v>
       </c>
       <c r="E5">
-        <v>1661</v>
+        <v>1665.656478443706</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>949</v>
+        <v>956.6387882867735</v>
       </c>
       <c r="C6">
-        <v>1343</v>
+        <v>1348.751454511466</v>
       </c>
       <c r="D6">
-        <v>1522</v>
+        <v>1529.530371690483</v>
       </c>
       <c r="E6">
-        <v>1657</v>
+        <v>1662.592171833827</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>976</v>
+        <v>978.6812250594128</v>
       </c>
       <c r="C7">
-        <v>1359</v>
+        <v>1364.810771981189</v>
       </c>
       <c r="D7">
-        <v>1546</v>
+        <v>1551.848641344193</v>
       </c>
       <c r="E7">
-        <v>1661</v>
+        <v>1666.659364228769</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>851</v>
+        <v>857.5831100157161</v>
       </c>
       <c r="C8">
-        <v>1248</v>
+        <v>1250.645859292783</v>
       </c>
       <c r="D8">
-        <v>1487</v>
+        <v>1492.493178748458</v>
       </c>
       <c r="E8">
-        <v>1612</v>
+        <v>1621.249539289433</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>963</v>
+        <v>968.8104278695378</v>
       </c>
       <c r="C9">
-        <v>1348</v>
+        <v>1355.153956130702</v>
       </c>
       <c r="D9">
-        <v>1539</v>
+        <v>1546.369023940821</v>
       </c>
       <c r="E9">
-        <v>1655</v>
+        <v>1663.386026970141</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>980</v>
+        <v>985.2174112199041</v>
       </c>
       <c r="C10">
-        <v>1360</v>
+        <v>1366.076505990439</v>
       </c>
       <c r="D10">
-        <v>1548</v>
+        <v>1550.508552988491</v>
       </c>
       <c r="E10">
-        <v>1659</v>
+        <v>1664.172647136288</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>980</v>
+        <v>984.5733410625709</v>
       </c>
       <c r="C11">
-        <v>1362</v>
+        <v>1366.774754614911</v>
       </c>
       <c r="D11">
-        <v>1544</v>
+        <v>1551.685674726312</v>
       </c>
       <c r="E11">
-        <v>1660</v>
+        <v>1665.265662253962</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>960</v>
+        <v>963.1117077385796</v>
       </c>
       <c r="C12">
-        <v>1341</v>
+        <v>1344.763941678255</v>
       </c>
       <c r="D12">
-        <v>1532</v>
+        <v>1536.649278763721</v>
       </c>
       <c r="E12">
-        <v>1646</v>
+        <v>1650.444086449992</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>978</v>
+        <v>983.0675815936149</v>
       </c>
       <c r="C13">
-        <v>1358</v>
+        <v>1363.549160780126</v>
       </c>
       <c r="D13">
-        <v>1546</v>
+        <v>1548.442024655659</v>
       </c>
       <c r="E13">
-        <v>1656</v>
+        <v>1662.183841794597</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV_Fiets.xlsx
@@ -391,7 +391,7 @@
         <v>894.2834347060425</v>
       </c>
       <c r="C2">
-        <v>1295.177072832771</v>
+        <v>1295.177072832772</v>
       </c>
       <c r="D2">
         <v>1514.908672723289</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>920.7716035501105</v>
+        <v>920.7716035501104</v>
       </c>
       <c r="C3">
         <v>1317.500688659987</v>
       </c>
       <c r="D3">
-        <v>1527.440964966058</v>
+        <v>1527.440964966059</v>
       </c>
       <c r="E3">
-        <v>1650.71200068266</v>
+        <v>1650.712000682662</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>851.6346524056777</v>
+        <v>851.6346524056775</v>
       </c>
       <c r="C4">
-        <v>1261.27490463378</v>
+        <v>1261.274904633781</v>
       </c>
       <c r="D4">
         <v>1496.895598707136</v>
       </c>
       <c r="E4">
-        <v>1629.731575774725</v>
+        <v>1629.731575774726</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>965.6008698726566</v>
+        <v>965.6008698726572</v>
       </c>
       <c r="C5">
-        <v>1356.938493712931</v>
+        <v>1356.938493712932</v>
       </c>
       <c r="D5">
-        <v>1533.798019368191</v>
+        <v>1533.79801936819</v>
       </c>
       <c r="E5">
         <v>1665.656478443706</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>956.6387882867735</v>
+        <v>956.6387882867741</v>
       </c>
       <c r="C6">
-        <v>1348.751454511466</v>
+        <v>1348.751454511467</v>
       </c>
       <c r="D6">
-        <v>1529.530371690483</v>
+        <v>1529.530371690482</v>
       </c>
       <c r="E6">
         <v>1662.592171833827</v>
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>978.6812250594128</v>
+        <v>978.6812250594126</v>
       </c>
       <c r="C7">
-        <v>1364.810771981189</v>
+        <v>1364.81077198119</v>
       </c>
       <c r="D7">
-        <v>1551.848641344193</v>
+        <v>1551.848641344192</v>
       </c>
       <c r="E7">
-        <v>1666.659364228769</v>
+        <v>1666.659364228768</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>857.5831100157161</v>
+        <v>857.5831100157154</v>
       </c>
       <c r="C8">
         <v>1250.645859292783</v>
       </c>
       <c r="D8">
-        <v>1492.493178748458</v>
+        <v>1492.493178748459</v>
       </c>
       <c r="E8">
-        <v>1621.249539289433</v>
+        <v>1621.249539289432</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>968.8104278695378</v>
+        <v>968.8104278695372</v>
       </c>
       <c r="C9">
-        <v>1355.153956130702</v>
+        <v>1355.153956130703</v>
       </c>
       <c r="D9">
-        <v>1546.369023940821</v>
+        <v>1546.369023940822</v>
       </c>
       <c r="E9">
-        <v>1663.386026970141</v>
+        <v>1663.386026970142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>985.2174112199041</v>
+        <v>985.2174112199045</v>
       </c>
       <c r="C10">
         <v>1366.076505990439</v>
       </c>
       <c r="D10">
-        <v>1550.508552988491</v>
+        <v>1550.508552988492</v>
       </c>
       <c r="E10">
-        <v>1664.172647136288</v>
+        <v>1664.172647136289</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>984.5733410625709</v>
+        <v>984.5733410625711</v>
       </c>
       <c r="C11">
         <v>1366.774754614911</v>
       </c>
       <c r="D11">
-        <v>1551.685674726312</v>
+        <v>1551.685674726313</v>
       </c>
       <c r="E11">
-        <v>1665.265662253962</v>
+        <v>1665.265662253961</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>963.1117077385796</v>
+        <v>963.1117077385793</v>
       </c>
       <c r="C12">
         <v>1344.763941678255</v>
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>983.0675815936149</v>
+        <v>983.0675815936146</v>
       </c>
       <c r="C13">
         <v>1363.549160780126</v>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>894.2834347060425</v>
+        <v>894</v>
       </c>
       <c r="C2">
-        <v>1295.177072832772</v>
+        <v>1295</v>
       </c>
       <c r="D2">
-        <v>1514.908672723289</v>
+        <v>1515</v>
       </c>
       <c r="E2">
-        <v>1642.72015540434</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>920.7716035501104</v>
+        <v>921</v>
       </c>
       <c r="C3">
-        <v>1317.500688659987</v>
+        <v>1318</v>
       </c>
       <c r="D3">
-        <v>1527.440964966059</v>
+        <v>1527</v>
       </c>
       <c r="E3">
-        <v>1650.712000682662</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>851.6346524056775</v>
+        <v>852</v>
       </c>
       <c r="C4">
-        <v>1261.274904633781</v>
+        <v>1261</v>
       </c>
       <c r="D4">
-        <v>1496.895598707136</v>
+        <v>1497</v>
       </c>
       <c r="E4">
-        <v>1629.731575774726</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>965.6008698726572</v>
+        <v>966</v>
       </c>
       <c r="C5">
-        <v>1356.938493712932</v>
+        <v>1357</v>
       </c>
       <c r="D5">
-        <v>1533.79801936819</v>
+        <v>1534</v>
       </c>
       <c r="E5">
-        <v>1665.656478443706</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>956.6387882867741</v>
+        <v>957</v>
       </c>
       <c r="C6">
-        <v>1348.751454511467</v>
+        <v>1349</v>
       </c>
       <c r="D6">
-        <v>1529.530371690482</v>
+        <v>1530</v>
       </c>
       <c r="E6">
-        <v>1662.592171833827</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>978.6812250594126</v>
+        <v>979</v>
       </c>
       <c r="C7">
-        <v>1364.81077198119</v>
+        <v>1365</v>
       </c>
       <c r="D7">
-        <v>1551.848641344192</v>
+        <v>1552</v>
       </c>
       <c r="E7">
-        <v>1666.659364228768</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>857.5831100157154</v>
+        <v>858</v>
       </c>
       <c r="C8">
-        <v>1250.645859292783</v>
+        <v>1251</v>
       </c>
       <c r="D8">
-        <v>1492.493178748459</v>
+        <v>1492</v>
       </c>
       <c r="E8">
-        <v>1621.249539289432</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>968.8104278695372</v>
+        <v>969</v>
       </c>
       <c r="C9">
-        <v>1355.153956130703</v>
+        <v>1355</v>
       </c>
       <c r="D9">
-        <v>1546.369023940822</v>
+        <v>1546</v>
       </c>
       <c r="E9">
-        <v>1663.386026970142</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>985.2174112199045</v>
+        <v>985</v>
       </c>
       <c r="C10">
-        <v>1366.076505990439</v>
+        <v>1366</v>
       </c>
       <c r="D10">
-        <v>1550.508552988492</v>
+        <v>1551</v>
       </c>
       <c r="E10">
-        <v>1664.172647136289</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>984.5733410625711</v>
+        <v>985</v>
       </c>
       <c r="C11">
-        <v>1366.774754614911</v>
+        <v>1367</v>
       </c>
       <c r="D11">
-        <v>1551.685674726313</v>
+        <v>1552</v>
       </c>
       <c r="E11">
-        <v>1665.265662253961</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>963.1117077385793</v>
+        <v>963</v>
       </c>
       <c r="C12">
-        <v>1344.763941678255</v>
+        <v>1345</v>
       </c>
       <c r="D12">
-        <v>1536.649278763721</v>
+        <v>1537</v>
       </c>
       <c r="E12">
-        <v>1650.444086449992</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>983.0675815936146</v>
+        <v>983</v>
       </c>
       <c r="C13">
-        <v>1363.549160780126</v>
+        <v>1364</v>
       </c>
       <c r="D13">
-        <v>1548.442024655659</v>
+        <v>1548</v>
       </c>
       <c r="E13">
-        <v>1662.183841794597</v>
+        <v>1662</v>
       </c>
     </row>
   </sheetData>
